--- a/nr-update-menu/ig/StructureDefinition-fr-patient.xlsx
+++ b/nr-update-menu/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T14:07:34+00:00</t>
+    <t>2024-11-14T14:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-menu/ig/StructureDefinition-fr-patient.xlsx
+++ b/nr-update-menu/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T14:10:22+00:00</t>
+    <t>2024-11-14T14:11:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-menu/ig/StructureDefinition-fr-patient.xlsx
+++ b/nr-update-menu/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T14:11:27+00:00</t>
+    <t>2024-11-14T14:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-menu/ig/StructureDefinition-fr-patient.xlsx
+++ b/nr-update-menu/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T14:12:33+00:00</t>
+    <t>2024-11-14T14:16:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-menu/ig/StructureDefinition-fr-patient.xlsx
+++ b/nr-update-menu/ig/StructureDefinition-fr-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T14:16:48+00:00</t>
+    <t>2024-11-15T13:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
